--- a/natmiOut/OldD2/LR-pairs_lrc2p/Spon1-App.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Spon1-App.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.539312225650411</v>
+        <v>0.545056</v>
       </c>
       <c r="H2">
-        <v>0.539312225650411</v>
+        <v>1.090112</v>
       </c>
       <c r="I2">
-        <v>0.02698659561767571</v>
+        <v>0.02422165523531875</v>
       </c>
       <c r="J2">
-        <v>0.02698659561767571</v>
+        <v>0.01749764391946633</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="N2">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="O2">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="P2">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="Q2">
-        <v>54.94116313453009</v>
+        <v>55.537034268848</v>
       </c>
       <c r="R2">
-        <v>54.94116313453009</v>
+        <v>222.148137075392</v>
       </c>
       <c r="S2">
-        <v>0.005311549130891932</v>
+        <v>0.004587216488346531</v>
       </c>
       <c r="T2">
-        <v>0.005311549130891932</v>
+        <v>0.002417504932342262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.539312225650411</v>
+        <v>0.545056</v>
       </c>
       <c r="H3">
-        <v>0.539312225650411</v>
+        <v>1.090112</v>
       </c>
       <c r="I3">
-        <v>0.02698659561767571</v>
+        <v>0.02422165523531875</v>
       </c>
       <c r="J3">
-        <v>0.02698659561767571</v>
+        <v>0.01749764391946633</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="N3">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="O3">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="P3">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="Q3">
-        <v>34.63412419338282</v>
+        <v>39.40961092853333</v>
       </c>
       <c r="R3">
-        <v>34.63412419338282</v>
+        <v>236.4576655712</v>
       </c>
       <c r="S3">
-        <v>0.003348324676128814</v>
+        <v>0.003255132713345005</v>
       </c>
       <c r="T3">
-        <v>0.003348324676128814</v>
+        <v>0.002573226948171581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.539312225650411</v>
+        <v>0.545056</v>
       </c>
       <c r="H4">
-        <v>0.539312225650411</v>
+        <v>1.090112</v>
       </c>
       <c r="I4">
-        <v>0.02698659561767571</v>
+        <v>0.02422165523531875</v>
       </c>
       <c r="J4">
-        <v>0.02698659561767571</v>
+        <v>0.01749764391946633</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="N4">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="O4">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="P4">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="Q4">
-        <v>77.62276480933916</v>
+        <v>82.88872986538667</v>
       </c>
       <c r="R4">
-        <v>77.62276480933916</v>
+        <v>497.33237919232</v>
       </c>
       <c r="S4">
-        <v>0.00750433928657307</v>
+        <v>0.006846396343311443</v>
       </c>
       <c r="T4">
-        <v>0.00750433928657307</v>
+        <v>0.005412169985035307</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.539312225650411</v>
+        <v>0.545056</v>
       </c>
       <c r="H5">
-        <v>0.539312225650411</v>
+        <v>1.090112</v>
       </c>
       <c r="I5">
-        <v>0.02698659561767571</v>
+        <v>0.02422165523531875</v>
       </c>
       <c r="J5">
-        <v>0.02698659561767571</v>
+        <v>0.01749764391946633</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="N5">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="O5">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="P5">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="Q5">
-        <v>45.42852649834857</v>
+        <v>46.64781761779199</v>
       </c>
       <c r="R5">
-        <v>45.42852649834857</v>
+        <v>279.886905706752</v>
       </c>
       <c r="S5">
-        <v>0.004391895560149725</v>
+        <v>0.003852990008178121</v>
       </c>
       <c r="T5">
-        <v>0.004391895560149725</v>
+        <v>0.00304584131990472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.539312225650411</v>
+        <v>0.545056</v>
       </c>
       <c r="H6">
-        <v>0.539312225650411</v>
+        <v>1.090112</v>
       </c>
       <c r="I6">
-        <v>0.02698659561767571</v>
+        <v>0.02422165523531875</v>
       </c>
       <c r="J6">
-        <v>0.02698659561767571</v>
+        <v>0.01749764391946633</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="N6">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="O6">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="P6">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="Q6">
-        <v>46.87589986950425</v>
+        <v>48.49717118692267</v>
       </c>
       <c r="R6">
-        <v>46.87589986950425</v>
+        <v>290.983027121536</v>
       </c>
       <c r="S6">
-        <v>0.004531823336211065</v>
+        <v>0.004005741866407203</v>
       </c>
       <c r="T6">
-        <v>0.004531823336211065</v>
+        <v>0.003166593753858308</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.539312225650411</v>
+        <v>0.545056</v>
       </c>
       <c r="H7">
-        <v>0.539312225650411</v>
+        <v>1.090112</v>
       </c>
       <c r="I7">
-        <v>0.02698659561767571</v>
+        <v>0.02422165523531875</v>
       </c>
       <c r="J7">
-        <v>0.02698659561767571</v>
+        <v>0.01749764391946633</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="N7">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="O7">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="P7">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="Q7">
-        <v>19.63923999149888</v>
+        <v>20.269126377744</v>
       </c>
       <c r="R7">
-        <v>19.63923999149888</v>
+        <v>81.07650551097599</v>
       </c>
       <c r="S7">
-        <v>0.001898663627721105</v>
+        <v>0.001674177815730446</v>
       </c>
       <c r="T7">
-        <v>0.001898663627721105</v>
+        <v>0.0008823069801541491</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.39958244302083</v>
+        <v>4.674897000000001</v>
       </c>
       <c r="H8">
-        <v>4.39958244302083</v>
+        <v>14.024691</v>
       </c>
       <c r="I8">
-        <v>0.2201503074276515</v>
+        <v>0.2077469900241919</v>
       </c>
       <c r="J8">
-        <v>0.2201503074276515</v>
+        <v>0.225113611444094</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="N8">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="O8">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="P8">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="Q8">
-        <v>448.1971022153439</v>
+        <v>476.3362203009136</v>
       </c>
       <c r="R8">
-        <v>448.1971022153439</v>
+        <v>2858.017321805481</v>
       </c>
       <c r="S8">
-        <v>0.04333037003441215</v>
+        <v>0.03934414922452324</v>
       </c>
       <c r="T8">
-        <v>0.04333037003441215</v>
+        <v>0.0311020882873284</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.39958244302083</v>
+        <v>4.674897000000001</v>
       </c>
       <c r="H9">
-        <v>4.39958244302083</v>
+        <v>14.024691</v>
       </c>
       <c r="I9">
-        <v>0.2201503074276515</v>
+        <v>0.2077469900241919</v>
       </c>
       <c r="J9">
-        <v>0.2201503074276515</v>
+        <v>0.225113611444094</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="N9">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="O9">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="P9">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="Q9">
-        <v>282.5370490106076</v>
+        <v>338.01273979365</v>
       </c>
       <c r="R9">
-        <v>282.5370490106076</v>
+        <v>3042.11465814285</v>
       </c>
       <c r="S9">
-        <v>0.02731484612807332</v>
+        <v>0.02791898475793024</v>
       </c>
       <c r="T9">
-        <v>0.02731484612807332</v>
+        <v>0.03310550917793717</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.39958244302083</v>
+        <v>4.674897000000001</v>
       </c>
       <c r="H10">
-        <v>4.39958244302083</v>
+        <v>14.024691</v>
       </c>
       <c r="I10">
-        <v>0.2201503074276515</v>
+        <v>0.2077469900241919</v>
       </c>
       <c r="J10">
-        <v>0.2201503074276515</v>
+        <v>0.225113611444094</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="N10">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="O10">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="P10">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="Q10">
-        <v>633.2282803751482</v>
+        <v>710.9292890666401</v>
       </c>
       <c r="R10">
-        <v>633.2282803751482</v>
+        <v>6398.36360159976</v>
       </c>
       <c r="S10">
-        <v>0.0612186369998586</v>
+        <v>0.05872093459416582</v>
       </c>
       <c r="T10">
-        <v>0.0612186369998586</v>
+        <v>0.0696295533666218</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.39958244302083</v>
+        <v>4.674897000000001</v>
       </c>
       <c r="H11">
-        <v>4.39958244302083</v>
+        <v>14.024691</v>
       </c>
       <c r="I11">
-        <v>0.2201503074276515</v>
+        <v>0.2077469900241919</v>
       </c>
       <c r="J11">
-        <v>0.2201503074276515</v>
+        <v>0.225113611444094</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="N11">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="O11">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="P11">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="Q11">
-        <v>370.5952472214063</v>
+        <v>400.094196996204</v>
       </c>
       <c r="R11">
-        <v>370.5952472214063</v>
+        <v>3600.847772965836</v>
       </c>
       <c r="S11">
-        <v>0.03582805224693897</v>
+        <v>0.03304675378357798</v>
       </c>
       <c r="T11">
-        <v>0.03582805224693897</v>
+        <v>0.03918586654095711</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.39958244302083</v>
+        <v>4.674897000000001</v>
       </c>
       <c r="H12">
-        <v>4.39958244302083</v>
+        <v>14.024691</v>
       </c>
       <c r="I12">
-        <v>0.2201503074276515</v>
+        <v>0.2077469900241919</v>
       </c>
       <c r="J12">
-        <v>0.2201503074276515</v>
+        <v>0.225113611444094</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="N12">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="O12">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="P12">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="Q12">
-        <v>382.4025791700799</v>
+        <v>415.9559386379221</v>
       </c>
       <c r="R12">
-        <v>382.4025791700799</v>
+        <v>3743.603447741299</v>
       </c>
       <c r="S12">
-        <v>0.03696955017257561</v>
+        <v>0.03435689293217841</v>
       </c>
       <c r="T12">
-        <v>0.03696955017257561</v>
+        <v>0.04073939092532954</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.39958244302083</v>
+        <v>4.674897000000001</v>
       </c>
       <c r="H13">
-        <v>4.39958244302083</v>
+        <v>14.024691</v>
       </c>
       <c r="I13">
-        <v>0.2201503074276515</v>
+        <v>0.2077469900241919</v>
       </c>
       <c r="J13">
-        <v>0.2201503074276515</v>
+        <v>0.225113611444094</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="N13">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="O13">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="P13">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="Q13">
-        <v>160.2123062511093</v>
+        <v>173.8465003521405</v>
       </c>
       <c r="R13">
-        <v>160.2123062511093</v>
+        <v>1043.079002112843</v>
       </c>
       <c r="S13">
-        <v>0.01548885184579284</v>
+        <v>0.01435927473181621</v>
       </c>
       <c r="T13">
-        <v>0.01548885184579284</v>
+        <v>0.01135120314591994</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.59488294349706</v>
+        <v>2.127485666666666</v>
       </c>
       <c r="H14">
-        <v>1.59488294349706</v>
+        <v>6.382457</v>
       </c>
       <c r="I14">
-        <v>0.07980620317252525</v>
+        <v>0.09454299069468508</v>
       </c>
       <c r="J14">
-        <v>0.07980620317252525</v>
+        <v>0.1024463173667525</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="N14">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="O14">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="P14">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="Q14">
-        <v>162.4749445897986</v>
+        <v>216.7745045942978</v>
       </c>
       <c r="R14">
-        <v>162.4749445897986</v>
+        <v>1300.647027565787</v>
       </c>
       <c r="S14">
-        <v>0.01570759702728745</v>
+        <v>0.01790501770250074</v>
       </c>
       <c r="T14">
-        <v>0.01570759702728745</v>
+        <v>0.01415416147878603</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.59488294349706</v>
+        <v>2.127485666666666</v>
       </c>
       <c r="H15">
-        <v>1.59488294349706</v>
+        <v>6.382457</v>
       </c>
       <c r="I15">
-        <v>0.07980620317252525</v>
+        <v>0.09454299069468508</v>
       </c>
       <c r="J15">
-        <v>0.07980620317252525</v>
+        <v>0.1024463173667525</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="N15">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="O15">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="P15">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="Q15">
-        <v>102.4218834875638</v>
+        <v>153.8252626874389</v>
       </c>
       <c r="R15">
-        <v>102.4218834875638</v>
+        <v>1384.42736418695</v>
       </c>
       <c r="S15">
-        <v>0.009901844722336663</v>
+        <v>0.01270557188754784</v>
       </c>
       <c r="T15">
-        <v>0.009901844722336663</v>
+        <v>0.01506589263116666</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.59488294349706</v>
+        <v>2.127485666666666</v>
       </c>
       <c r="H16">
-        <v>1.59488294349706</v>
+        <v>6.382457</v>
       </c>
       <c r="I16">
-        <v>0.07980620317252525</v>
+        <v>0.09454299069468508</v>
       </c>
       <c r="J16">
-        <v>0.07980620317252525</v>
+        <v>0.1024463173667525</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="N16">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="O16">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="P16">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="Q16">
-        <v>229.5501895440936</v>
+        <v>323.5348014090578</v>
       </c>
       <c r="R16">
-        <v>229.5501895440936</v>
+        <v>2911.81321268152</v>
       </c>
       <c r="S16">
-        <v>0.0221922332947973</v>
+        <v>0.02672314420667633</v>
       </c>
       <c r="T16">
-        <v>0.0221922332947973</v>
+        <v>0.03168751670119997</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.59488294349706</v>
+        <v>2.127485666666666</v>
       </c>
       <c r="H17">
-        <v>1.59488294349706</v>
+        <v>6.382457</v>
       </c>
       <c r="I17">
-        <v>0.07980620317252525</v>
+        <v>0.09454299069468508</v>
       </c>
       <c r="J17">
-        <v>0.07980620317252525</v>
+        <v>0.1024463173667525</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="N17">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="O17">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="P17">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="Q17">
-        <v>134.3436670159697</v>
+        <v>182.077737632708</v>
       </c>
       <c r="R17">
-        <v>134.3436670159697</v>
+        <v>1638.699638694372</v>
       </c>
       <c r="S17">
-        <v>0.01298794832632573</v>
+        <v>0.01503915380476288</v>
       </c>
       <c r="T17">
-        <v>0.01298794832632573</v>
+        <v>0.01783298528326916</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.59488294349706</v>
+        <v>2.127485666666666</v>
       </c>
       <c r="H18">
-        <v>1.59488294349706</v>
+        <v>6.382457</v>
       </c>
       <c r="I18">
-        <v>0.07980620317252525</v>
+        <v>0.09454299069468508</v>
       </c>
       <c r="J18">
-        <v>0.07980620317252525</v>
+        <v>0.1024463173667525</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="N18">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="O18">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="P18">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="Q18">
-        <v>138.6239169208261</v>
+        <v>189.2962128186051</v>
       </c>
       <c r="R18">
-        <v>138.6239169208261</v>
+        <v>1703.665915367446</v>
       </c>
       <c r="S18">
-        <v>0.01340175022575897</v>
+        <v>0.01563538132806153</v>
       </c>
       <c r="T18">
-        <v>0.01340175022575897</v>
+        <v>0.01853997430582292</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.59488294349706</v>
+        <v>2.127485666666666</v>
       </c>
       <c r="H19">
-        <v>1.59488294349706</v>
+        <v>6.382457</v>
       </c>
       <c r="I19">
-        <v>0.07980620317252525</v>
+        <v>0.09454299069468508</v>
       </c>
       <c r="J19">
-        <v>0.07980620317252525</v>
+        <v>0.1024463173667525</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="N19">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="O19">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="P19">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="Q19">
-        <v>58.07821035006614</v>
+        <v>79.11531263669349</v>
       </c>
       <c r="R19">
-        <v>58.07821035006614</v>
+        <v>474.6918758201609</v>
       </c>
       <c r="S19">
-        <v>0.005614829576019152</v>
+        <v>0.006534721765135751</v>
       </c>
       <c r="T19">
-        <v>0.005614829576019152</v>
+        <v>0.005165786966507762</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.018596952689251</v>
+        <v>9.447223666666668</v>
       </c>
       <c r="H20">
-        <v>8.018596952689251</v>
+        <v>28.341671</v>
       </c>
       <c r="I20">
-        <v>0.4012418467287282</v>
+        <v>0.4198236412129101</v>
       </c>
       <c r="J20">
-        <v>0.4012418467287282</v>
+        <v>0.4549188223234542</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="N20">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="O20">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="P20">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="Q20">
-        <v>816.8756841298026</v>
+        <v>962.599777859777</v>
       </c>
       <c r="R20">
-        <v>816.8756841298026</v>
+        <v>5775.598667158662</v>
       </c>
       <c r="S20">
-        <v>0.07897312474914563</v>
+        <v>0.079508271026887</v>
       </c>
       <c r="T20">
-        <v>0.07897312474914563</v>
+        <v>0.06285237611669411</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.018596952689251</v>
+        <v>9.447223666666668</v>
       </c>
       <c r="H21">
-        <v>8.018596952689251</v>
+        <v>28.341671</v>
       </c>
       <c r="I21">
-        <v>0.4012418467287282</v>
+        <v>0.4198236412129101</v>
       </c>
       <c r="J21">
-        <v>0.4012418467287282</v>
+        <v>0.4549188223234542</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="N21">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="O21">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="P21">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="Q21">
-        <v>514.9467590525943</v>
+        <v>683.0700130962056</v>
       </c>
       <c r="R21">
-        <v>514.9467590525943</v>
+        <v>6147.63011786585</v>
       </c>
       <c r="S21">
-        <v>0.04978352940588537</v>
+        <v>0.05641982990308118</v>
       </c>
       <c r="T21">
-        <v>0.04978352940588537</v>
+        <v>0.0669009712519567</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.018596952689251</v>
+        <v>9.447223666666668</v>
       </c>
       <c r="H22">
-        <v>8.018596952689251</v>
+        <v>28.341671</v>
       </c>
       <c r="I22">
-        <v>0.4012418467287282</v>
+        <v>0.4198236412129101</v>
       </c>
       <c r="J22">
-        <v>0.4012418467287282</v>
+        <v>0.4549188223234542</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="N22">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="O22">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="P22">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="Q22">
-        <v>1154.110060473477</v>
+        <v>1436.675076476951</v>
       </c>
       <c r="R22">
-        <v>1154.110060473477</v>
+        <v>12930.07568829256</v>
       </c>
       <c r="S22">
-        <v>0.1115759466841139</v>
+        <v>0.1186656739232519</v>
       </c>
       <c r="T22">
-        <v>0.1115759466841139</v>
+        <v>0.1407102583146921</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.018596952689251</v>
+        <v>9.447223666666668</v>
       </c>
       <c r="H23">
-        <v>8.018596952689251</v>
+        <v>28.341671</v>
       </c>
       <c r="I23">
-        <v>0.4012418467287282</v>
+        <v>0.4198236412129101</v>
       </c>
       <c r="J23">
-        <v>0.4012418467287282</v>
+        <v>0.4549188223234542</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="N23">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="O23">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="P23">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="Q23">
-        <v>675.4399897119097</v>
+        <v>808.526768987324</v>
       </c>
       <c r="R23">
-        <v>675.4399897119097</v>
+        <v>7276.740920885915</v>
       </c>
       <c r="S23">
-        <v>0.06529954019246363</v>
+        <v>0.0667822359403264</v>
       </c>
       <c r="T23">
-        <v>0.06529954019246363</v>
+        <v>0.07918840688566434</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.018596952689251</v>
+        <v>9.447223666666668</v>
       </c>
       <c r="H24">
-        <v>8.018596952689251</v>
+        <v>28.341671</v>
       </c>
       <c r="I24">
-        <v>0.4012418467287282</v>
+        <v>0.4198236412129101</v>
       </c>
       <c r="J24">
-        <v>0.4012418467287282</v>
+        <v>0.4549188223234542</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="N24">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="O24">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="P24">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="Q24">
-        <v>696.9598128335824</v>
+        <v>840.5808272975266</v>
       </c>
       <c r="R24">
-        <v>696.9598128335824</v>
+        <v>7565.227445677739</v>
       </c>
       <c r="S24">
-        <v>0.06738001303427411</v>
+        <v>0.06942981888627892</v>
       </c>
       <c r="T24">
-        <v>0.06738001303427411</v>
+        <v>0.08232783270205921</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.018596952689251</v>
+        <v>9.447223666666668</v>
       </c>
       <c r="H25">
-        <v>8.018596952689251</v>
+        <v>28.341671</v>
       </c>
       <c r="I25">
-        <v>0.4012418467287282</v>
+        <v>0.4198236412129101</v>
       </c>
       <c r="J25">
-        <v>0.4012418467287282</v>
+        <v>0.4549188223234542</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="N25">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="O25">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="P25">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="Q25">
-        <v>291.9999630252138</v>
+        <v>351.3161407607305</v>
       </c>
       <c r="R25">
-        <v>291.9999630252138</v>
+        <v>2107.896844564383</v>
       </c>
       <c r="S25">
-        <v>0.02822969266284566</v>
+        <v>0.02901781153308464</v>
       </c>
       <c r="T25">
-        <v>0.02822969266284566</v>
+        <v>0.02293897705238767</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.7995180562698549</v>
+        <v>1.045218333333333</v>
       </c>
       <c r="H26">
-        <v>0.7995180562698549</v>
+        <v>3.135655</v>
       </c>
       <c r="I26">
-        <v>0.04000701161106383</v>
+        <v>0.04644828809449759</v>
       </c>
       <c r="J26">
-        <v>0.04000701161106383</v>
+        <v>0.05033113537351593</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="N26">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="O26">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="P26">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="Q26">
-        <v>81.44901945352559</v>
+        <v>106.4997475429342</v>
       </c>
       <c r="R26">
-        <v>81.44901945352559</v>
+        <v>638.998485257605</v>
       </c>
       <c r="S26">
-        <v>0.00787425026716399</v>
+        <v>0.008796605803052802</v>
       </c>
       <c r="T26">
-        <v>0.00787425026716399</v>
+        <v>0.006953837246653257</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.7995180562698549</v>
+        <v>1.045218333333333</v>
       </c>
       <c r="H27">
-        <v>0.7995180562698549</v>
+        <v>3.135655</v>
       </c>
       <c r="I27">
-        <v>0.04000701161106383</v>
+        <v>0.04644828809449759</v>
       </c>
       <c r="J27">
-        <v>0.04000701161106383</v>
+        <v>0.05033113537351593</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="N27">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="O27">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="P27">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="Q27">
-        <v>51.34429804981205</v>
+        <v>75.57323990936111</v>
       </c>
       <c r="R27">
-        <v>51.34429804981205</v>
+        <v>680.1591591842499</v>
       </c>
       <c r="S27">
-        <v>0.00496381485435525</v>
+        <v>0.006242155648999878</v>
       </c>
       <c r="T27">
-        <v>0.00496381485435525</v>
+        <v>0.007401764173010626</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.7995180562698549</v>
+        <v>1.045218333333333</v>
       </c>
       <c r="H28">
-        <v>0.7995180562698549</v>
+        <v>3.135655</v>
       </c>
       <c r="I28">
-        <v>0.04000701161106383</v>
+        <v>0.04644828809449759</v>
       </c>
       <c r="J28">
-        <v>0.04000701161106383</v>
+        <v>0.05033113537351593</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="N28">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="O28">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="P28">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="Q28">
-        <v>115.07397587327</v>
+        <v>158.9503098434222</v>
       </c>
       <c r="R28">
-        <v>115.07397587327</v>
+        <v>1430.5527885908</v>
       </c>
       <c r="S28">
-        <v>0.01112501158814744</v>
+        <v>0.01312888762860223</v>
       </c>
       <c r="T28">
-        <v>0.01112501158814744</v>
+        <v>0.01556784795913254</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.7995180562698549</v>
+        <v>1.045218333333333</v>
       </c>
       <c r="H29">
-        <v>0.7995180562698549</v>
+        <v>3.135655</v>
       </c>
       <c r="I29">
-        <v>0.04000701161106383</v>
+        <v>0.04644828809449759</v>
       </c>
       <c r="J29">
-        <v>0.04000701161106383</v>
+        <v>0.05033113537351593</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="N29">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="O29">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="P29">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="Q29">
-        <v>67.34675291545668</v>
+        <v>89.45347667781999</v>
       </c>
       <c r="R29">
-        <v>67.34675291545668</v>
+        <v>805.0812901003799</v>
       </c>
       <c r="S29">
-        <v>0.006510884854049734</v>
+        <v>0.007388627580831919</v>
       </c>
       <c r="T29">
-        <v>0.006510884854049734</v>
+        <v>0.008761216796040987</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.7995180562698549</v>
+        <v>1.045218333333333</v>
       </c>
       <c r="H30">
-        <v>0.7995180562698549</v>
+        <v>3.135655</v>
       </c>
       <c r="I30">
-        <v>0.04000701161106383</v>
+        <v>0.04644828809449759</v>
       </c>
       <c r="J30">
-        <v>0.04000701161106383</v>
+        <v>0.05033113537351593</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="N30">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="O30">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="P30">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="Q30">
-        <v>69.49245087920588</v>
+        <v>92.9998613708989</v>
       </c>
       <c r="R30">
-        <v>69.49245087920588</v>
+        <v>836.9987523380901</v>
       </c>
       <c r="S30">
-        <v>0.006718324586015398</v>
+        <v>0.007681549854271291</v>
       </c>
       <c r="T30">
-        <v>0.006718324586015398</v>
+        <v>0.009108555393624301</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.7995180562698549</v>
+        <v>1.045218333333333</v>
       </c>
       <c r="H31">
-        <v>0.7995180562698549</v>
+        <v>3.135655</v>
       </c>
       <c r="I31">
-        <v>0.04000701161106383</v>
+        <v>0.04644828809449759</v>
       </c>
       <c r="J31">
-        <v>0.04000701161106383</v>
+        <v>0.05033113537351593</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="N31">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="O31">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="P31">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="Q31">
-        <v>29.11472471384058</v>
+        <v>38.8687813558025</v>
       </c>
       <c r="R31">
-        <v>29.11472471384058</v>
+        <v>233.212688134815</v>
       </c>
       <c r="S31">
-        <v>0.002814725461332017</v>
+        <v>0.003210461578739464</v>
       </c>
       <c r="T31">
-        <v>0.002814725461332017</v>
+        <v>0.002537913805054213</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.63255570614407</v>
+        <v>4.662958</v>
       </c>
       <c r="H32">
-        <v>4.63255570614407</v>
+        <v>9.325915999999999</v>
       </c>
       <c r="I32">
-        <v>0.2318080354423556</v>
+        <v>0.2072164347383965</v>
       </c>
       <c r="J32">
-        <v>0.2318080354423556</v>
+        <v>0.1496924695727171</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="N32">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="O32">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="P32">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="Q32">
-        <v>471.9307048419136</v>
+        <v>475.119727587989</v>
       </c>
       <c r="R32">
-        <v>471.9307048419136</v>
+        <v>1900.478910351956</v>
       </c>
       <c r="S32">
-        <v>0.04562486453019507</v>
+        <v>0.03924367004870576</v>
       </c>
       <c r="T32">
-        <v>0.04562486453019507</v>
+        <v>0.0206817720826939</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.63255570614407</v>
+        <v>4.662958</v>
       </c>
       <c r="H33">
-        <v>4.63255570614407</v>
+        <v>9.325915999999999</v>
       </c>
       <c r="I33">
-        <v>0.2318080354423556</v>
+        <v>0.2072164347383965</v>
       </c>
       <c r="J33">
-        <v>0.2318080354423556</v>
+        <v>0.1496924695727171</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="N33">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="O33">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="P33">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="Q33">
-        <v>297.498372980256</v>
+        <v>337.1495049244333</v>
       </c>
       <c r="R33">
-        <v>297.498372980256</v>
+        <v>2022.8970295466</v>
       </c>
       <c r="S33">
-        <v>0.02876126267250272</v>
+        <v>0.02784768377332567</v>
       </c>
       <c r="T33">
-        <v>0.02876126267250272</v>
+        <v>0.02201397504805425</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.63255570614407</v>
+        <v>4.662958</v>
       </c>
       <c r="H34">
-        <v>4.63255570614407</v>
+        <v>9.325915999999999</v>
       </c>
       <c r="I34">
-        <v>0.2318080354423556</v>
+        <v>0.2072164347383965</v>
       </c>
       <c r="J34">
-        <v>0.2318080354423556</v>
+        <v>0.1496924695727171</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="N34">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="O34">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="P34">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="Q34">
-        <v>666.759930410469</v>
+        <v>709.1136801276267</v>
       </c>
       <c r="R34">
-        <v>666.759930410469</v>
+        <v>4254.68208076576</v>
       </c>
       <c r="S34">
-        <v>0.06446037773560474</v>
+        <v>0.05857096995577489</v>
       </c>
       <c r="T34">
-        <v>0.06446037773560474</v>
+        <v>0.04630115314587908</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.63255570614407</v>
+        <v>4.662958</v>
       </c>
       <c r="H35">
-        <v>4.63255570614407</v>
+        <v>9.325915999999999</v>
       </c>
       <c r="I35">
-        <v>0.2318080354423556</v>
+        <v>0.2072164347383965</v>
       </c>
       <c r="J35">
-        <v>0.2318080354423556</v>
+        <v>0.1496924695727171</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="N35">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="O35">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="P35">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="Q35">
-        <v>390.2195604741551</v>
+        <v>399.0724152076559</v>
       </c>
       <c r="R35">
-        <v>390.2195604741551</v>
+        <v>2394.434491245936</v>
       </c>
       <c r="S35">
-        <v>0.03772527280171237</v>
+        <v>0.03296235723036575</v>
       </c>
       <c r="T35">
-        <v>0.03772527280171237</v>
+        <v>0.02605719439723674</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.63255570614407</v>
+        <v>4.662958</v>
       </c>
       <c r="H36">
-        <v>4.63255570614407</v>
+        <v>9.325915999999999</v>
       </c>
       <c r="I36">
-        <v>0.2318080354423556</v>
+        <v>0.2072164347383965</v>
       </c>
       <c r="J36">
-        <v>0.2318080354423556</v>
+        <v>0.1496924695727171</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="N36">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="O36">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="P36">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="Q36">
-        <v>402.6521319060042</v>
+        <v>414.8936482919747</v>
       </c>
       <c r="R36">
-        <v>402.6521319060042</v>
+        <v>2489.361889751848</v>
       </c>
       <c r="S36">
-        <v>0.03892721703106718</v>
+        <v>0.03426915047609493</v>
       </c>
       <c r="T36">
-        <v>0.03892721703106718</v>
+        <v>0.02709023233815173</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.63255570614407</v>
+        <v>4.662958</v>
       </c>
       <c r="H37">
-        <v>4.63255570614407</v>
+        <v>9.325915999999999</v>
       </c>
       <c r="I37">
-        <v>0.2318080354423556</v>
+        <v>0.2072164347383965</v>
       </c>
       <c r="J37">
-        <v>0.2318080354423556</v>
+        <v>0.1496924695727171</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="N37">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="O37">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="P37">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="Q37">
-        <v>168.6961076716352</v>
+        <v>173.402521935567</v>
       </c>
       <c r="R37">
-        <v>168.6961076716352</v>
+        <v>693.6100877422679</v>
       </c>
       <c r="S37">
-        <v>0.01630904067127354</v>
+        <v>0.0143226032541295</v>
       </c>
       <c r="T37">
-        <v>0.01630904067127354</v>
+        <v>0.007548142560701341</v>
       </c>
     </row>
   </sheetData>
